--- a/dhcp.xlsx
+++ b/dhcp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DHCPv4" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>4E</t>
   </si>
@@ -268,6 +268,27 @@
   </si>
   <si>
     <t>(dhcp-config)#</t>
+  </si>
+  <si>
+    <t>(config-if)#</t>
+  </si>
+  <si>
+    <t>helper-address</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>Solicitud y relegacion de Direcciones</t>
+  </si>
+  <si>
+    <t>SLAAC</t>
+  </si>
+  <si>
+    <t>STATELESS DHCPv6</t>
+  </si>
+  <si>
+    <t>STATEFUL DHCPv6</t>
   </si>
 </sst>
 </file>
@@ -363,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -441,25 +462,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -473,20 +501,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis5" xfId="2" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -525,6 +561,43 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -560,7 +633,7 @@
   <tableColumns count="5">
     <tableColumn id="1" name="cmd"/>
     <tableColumn id="2" name="param."/>
-    <tableColumn id="3" name="atributo" dataDxfId="3"/>
+    <tableColumn id="3" name="atributo" dataDxfId="6"/>
     <tableColumn id="4" name="valor"/>
     <tableColumn id="5" name="modo"/>
   </tableColumns>
@@ -569,8 +642,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A17:E20" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A17:E20" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A17:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="cmd"/>
+    <tableColumn id="2" name="param."/>
+    <tableColumn id="3" name="atributo"/>
+    <tableColumn id="4" name="valor"/>
+    <tableColumn id="5" name="modo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A23:E25" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A23:E25"/>
   <tableColumns count="5">
     <tableColumn id="1" name="cmd"/>
     <tableColumn id="2" name="param."/>
@@ -845,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A20" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,13 +948,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -955,13 +1042,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1004,7 +1091,7 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>255255255240</v>
       </c>
       <c r="E11" t="s">
@@ -1045,45 +1132,45 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1097,7 +1184,7 @@
       <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>255255255240</v>
       </c>
       <c r="E19" t="s">
@@ -1115,128 +1202,200 @@
         <v>54</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>81</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="14">
         <v>8130</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="14">
         <v>8130</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
